--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>usuario</t>
   </si>
@@ -84,6 +84,27 @@
   </si>
   <si>
     <t>super_admin</t>
+  </si>
+  <si>
+    <t>admin_1vg</t>
+  </si>
+  <si>
+    <t>Imelda Garza</t>
+  </si>
+  <si>
+    <t>1VG</t>
+  </si>
+  <si>
+    <t>admin_3vg</t>
+  </si>
+  <si>
+    <t>Angelica Cruz</t>
+  </si>
+  <si>
+    <t>3VG</t>
+  </si>
+  <si>
+    <t>rol</t>
   </si>
 </sst>
 </file>
@@ -401,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +434,7 @@
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,8 +447,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -440,8 +464,11 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -454,8 +481,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -468,8 +498,11 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -482,8 +515,11 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -495,6 +531,43 @@
       </c>
       <c r="D6" t="s">
         <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>1234</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>1234</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
